--- a/nba_mvp_pivot_table.xlsx
+++ b/nba_mvp_pivot_table.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>player_x</t>
+    <t>player</t>
   </si>
   <si>
     <t>award</t>

--- a/nba_mvp_pivot_table.xlsx
+++ b/nba_mvp_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>player</t>
   </si>
@@ -64,9 +64,6 @@
     <t>James Harden</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Julius Erving</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Larry Bird</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
   </si>
   <si>
     <t>Magic Johnson</t>
@@ -485,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -632,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -640,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -664,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -680,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -696,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -704,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -712,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -728,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -736,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -752,7 +746,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -760,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -768,22 +762,6 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
         <v>4</v>
       </c>
     </row>

--- a/nba_mvp_pivot_table.xlsx
+++ b/nba_mvp_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>player</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Larry Bird</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
   </si>
   <si>
     <t>Magic Johnson</t>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -674,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -682,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -698,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -722,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -746,7 +749,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -762,6 +765,14 @@
         <v>35</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>4</v>
       </c>
     </row>

--- a/nba_mvp_pivot_table.xlsx
+++ b/nba_mvp_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>player</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>James Harden</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
   </si>
   <si>
     <t>Julius Erving</t>
@@ -482,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -629,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -637,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -661,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -669,7 +672,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -677,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -685,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -693,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -709,7 +712,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -733,7 +736,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -757,7 +760,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -773,6 +776,14 @@
         <v>36</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
         <v>4</v>
       </c>
     </row>
